--- a/02_Fund_Raising_Calculator.xlsx
+++ b/02_Fund_Raising_Calculator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://masseyhighschoolnz-my.sharepoint.com/personal/jgottschalk_masseyhigh_school_nz/Documents/Projects/01_Tutorials/12I_91896_7_v2_Adv_Programming_Revisited/91896_7_v2_support_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://masseyhighschoolnz-my.sharepoint.com/personal/stevensc9277_masseyhigh_school_nz/Documents/Old School Files/Documents/COM_201/FRC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{812A805A-F43D-4689-A46B-BB5586C1D7C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1F075ED8-BFC2-49FF-8E95-B1985A4A2084}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="8_{812A805A-F43D-4689-A46B-BB5586C1D7C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{9E36065A-C3C9-42EA-B141-34FA9ED4B44C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{74EEDAD5-0EF5-4421-8296-520D2E1E24A8}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="13890" windowHeight="11385" activeTab="1" xr2:uid="{74EEDAD5-0EF5-4421-8296-520D2E1E24A8}"/>
   </bookViews>
   <sheets>
     <sheet name="$ Goal" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
   <si>
     <t>Item Name</t>
   </si>
@@ -80,6 +80,15 @@
   </si>
   <si>
     <t>Total Expenses</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Cost</t>
   </si>
 </sst>
 </file>
@@ -90,7 +99,7 @@
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,6 +111,19 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -150,7 +172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -166,11 +188,68 @@
     <xf numFmtId="8" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -181,6 +260,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{966F2C4E-CA0C-4508-95D0-31F31FCB0356}" name="Table1" displayName="Table1" ref="A3:D7" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A3:D7" xr:uid="{1B51583B-8822-4A43-A57D-0A0A3774BAD7}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{EB2638FA-726D-4214-A6D6-68CC5E6F5C63}" name="Variable Costs" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{E2958BDB-855B-49C5-9310-D7B47CDD3507}" name="Price" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{C2C82771-51B5-491B-9CAE-53C5E750AA4B}" name="Quantity" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{A4A1B81A-DD7E-45BE-967D-FAFEF7ACD91B}" name="Cost" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -678,12 +770,13 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="A3" sqref="A3:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -702,12 +795,18 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
+      <c r="B3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -869,5 +968,8 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>